--- a/Data Penyakit/Penyakit dan Gejala.xlsx
+++ b/Data Penyakit/Penyakit dan Gejala.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E77909-92A7-41A3-BA72-8285B356202A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="157">
   <si>
     <t xml:space="preserve">Penyakit </t>
   </si>
@@ -441,12 +442,69 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>G001</t>
+  </si>
+  <si>
+    <t>G002</t>
+  </si>
+  <si>
+    <t>G003</t>
+  </si>
+  <si>
+    <t>G004</t>
+  </si>
+  <si>
+    <t>G005</t>
+  </si>
+  <si>
+    <t>G006</t>
+  </si>
+  <si>
+    <t>G007</t>
+  </si>
+  <si>
+    <t>G008</t>
+  </si>
+  <si>
+    <t>G009</t>
+  </si>
+  <si>
+    <t>G011</t>
+  </si>
+  <si>
+    <t>G012</t>
+  </si>
+  <si>
+    <t>G013</t>
+  </si>
+  <si>
+    <t>G014</t>
+  </si>
+  <si>
+    <t>G015</t>
+  </si>
+  <si>
+    <t>G016</t>
+  </si>
+  <si>
+    <t>G017</t>
+  </si>
+  <si>
+    <t>G018</t>
+  </si>
+  <si>
+    <t>G019</t>
+  </si>
+  <si>
+    <t>G021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,8 +691,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -644,27 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,11 +1003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,18 +1024,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="H2" s="23" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="H2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1019,7 +1077,7 @@
         <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>96</v>
@@ -1045,7 +1103,7 @@
         <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>103</v>
@@ -1071,7 +1129,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>37</v>
@@ -1095,7 +1153,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="H7" s="1" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>38</v>
@@ -1119,7 +1177,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>39</v>
@@ -1143,7 +1201,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>94</v>
@@ -1163,7 +1221,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="5"/>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>40</v>
@@ -1183,7 +1241,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="5"/>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>41</v>
@@ -1203,7 +1261,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
       <c r="H12" s="1" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>42</v>
@@ -1221,7 +1279,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
       <c r="H13" s="1" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>43</v>
@@ -1239,7 +1297,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
       <c r="H14" s="1" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>44</v>
@@ -1257,7 +1315,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="5"/>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>45</v>
@@ -1271,7 +1329,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>68</v>
@@ -1285,7 +1343,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>92</v>
@@ -1299,7 +1357,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>93</v>
@@ -1313,7 +1371,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>23</v>
@@ -1336,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>97</v>
@@ -1353,7 +1411,7 @@
         <v>35</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>98</v>
@@ -1373,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>104</v>
@@ -1624,10 +1682,10 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="16">
+      <c r="I39" s="19">
         <v>1</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="20" t="s">
         <v>13</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -1636,7 +1694,7 @@
       <c r="L39" s="1">
         <v>25</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="19">
         <v>100</v>
       </c>
     </row>
@@ -1650,15 +1708,15 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="24"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
       <c r="K40" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L40" s="1">
         <v>25</v>
       </c>
-      <c r="M40" s="16"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -1670,15 +1728,15 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="24"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L41" s="1">
         <v>25</v>
       </c>
-      <c r="M41" s="16"/>
+      <c r="M41" s="19"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -1690,15 +1748,15 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="24"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="1" t="s">
         <v>122</v>
       </c>
       <c r="L42" s="1">
         <v>25</v>
       </c>
-      <c r="M42" s="16"/>
+      <c r="M42" s="19"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -1707,10 +1765,10 @@
       <c r="C43" t="s">
         <v>89</v>
       </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="26"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -1720,10 +1778,10 @@
       <c r="C44" t="s">
         <v>77</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="19">
         <v>2</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="23" t="s">
         <v>14</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -1732,7 +1790,7 @@
       <c r="L44" s="1">
         <v>20</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="19">
         <v>100</v>
       </c>
     </row>
@@ -1743,15 +1801,15 @@
       <c r="C45" t="s">
         <v>78</v>
       </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="20"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L45" s="1">
         <v>20</v>
       </c>
-      <c r="M45" s="16"/>
+      <c r="M45" s="19"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -1760,15 +1818,15 @@
       <c r="C46" t="s">
         <v>79</v>
       </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="20"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="23"/>
       <c r="K46" s="1" t="s">
         <v>123</v>
       </c>
       <c r="L46" s="1">
         <v>20</v>
       </c>
-      <c r="M46" s="16"/>
+      <c r="M46" s="19"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -1777,15 +1835,15 @@
       <c r="C47" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="20"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="23"/>
       <c r="K47" s="1" t="s">
         <v>124</v>
       </c>
       <c r="L47" s="1">
         <v>20</v>
       </c>
-      <c r="M47" s="16"/>
+      <c r="M47" s="19"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -1794,15 +1852,15 @@
       <c r="C48" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="20"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="23"/>
       <c r="K48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L48" s="1">
         <v>20</v>
       </c>
-      <c r="M48" s="16"/>
+      <c r="M48" s="19"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -1811,10 +1869,10 @@
       <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="24">
         <v>3</v>
       </c>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="19" t="s">
         <v>15</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -1823,7 +1881,7 @@
       <c r="L49" s="1">
         <v>33.33</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="19">
         <v>100</v>
       </c>
     </row>
@@ -1834,15 +1892,15 @@
       <c r="C50" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="16"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="19"/>
       <c r="K50" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L50" s="1">
         <v>33.33</v>
       </c>
-      <c r="M50" s="16"/>
+      <c r="M50" s="19"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -1851,15 +1909,15 @@
       <c r="C51" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="16"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="19"/>
       <c r="K51" s="1" t="s">
         <v>125</v>
       </c>
       <c r="L51" s="1">
         <v>33.33</v>
       </c>
-      <c r="M51" s="16"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -1868,10 +1926,10 @@
       <c r="C52" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="24">
         <v>4</v>
       </c>
-      <c r="J52" s="16" t="s">
+      <c r="J52" s="19" t="s">
         <v>126</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -1880,7 +1938,7 @@
       <c r="L52" s="1">
         <v>33.33</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M52" s="19">
         <v>100</v>
       </c>
     </row>
@@ -1891,38 +1949,38 @@
       <c r="C53" t="s">
         <v>86</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="16"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="19"/>
       <c r="K53" s="1" t="s">
         <v>44</v>
       </c>
       <c r="L53" s="1">
         <v>33.33</v>
       </c>
-      <c r="M53" s="16"/>
+      <c r="M53" s="19"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>47</v>
       </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="16"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="19"/>
       <c r="K54" s="1" t="s">
         <v>127</v>
       </c>
       <c r="L54" s="1">
         <v>33.33</v>
       </c>
-      <c r="M54" s="16"/>
+      <c r="M54" s="19"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="24">
         <v>5</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="19" t="s">
         <v>128</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -1931,7 +1989,7 @@
       <c r="L55" s="1">
         <v>20</v>
       </c>
-      <c r="M55" s="16">
+      <c r="M55" s="19">
         <v>100</v>
       </c>
     </row>
@@ -1939,66 +1997,66 @@
       <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="16"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="19"/>
       <c r="K56" s="1" t="s">
         <v>130</v>
       </c>
       <c r="L56" s="1">
         <v>20</v>
       </c>
-      <c r="M56" s="16"/>
+      <c r="M56" s="19"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>50</v>
       </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="16"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="19"/>
       <c r="K57" s="1" t="s">
         <v>93</v>
       </c>
       <c r="L57" s="1">
         <v>20</v>
       </c>
-      <c r="M57" s="16"/>
+      <c r="M57" s="19"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>51</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="16"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="19"/>
       <c r="K58" s="1" t="s">
         <v>131</v>
       </c>
       <c r="L58" s="1">
         <v>20</v>
       </c>
-      <c r="M58" s="16"/>
+      <c r="M58" s="19"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>52</v>
       </c>
-      <c r="I59" s="19"/>
-      <c r="J59" s="16"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="19"/>
       <c r="K59" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L59" s="1">
         <v>20</v>
       </c>
-      <c r="M59" s="16"/>
+      <c r="M59" s="19"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>53</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="19">
         <v>6</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="19" t="s">
         <v>132</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -2007,7 +2065,7 @@
       <c r="L60" s="1">
         <v>33.33</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M60" s="19">
         <v>100</v>
       </c>
     </row>
@@ -2015,29 +2073,29 @@
       <c r="B61" t="s">
         <v>54</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
       <c r="K61" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L61" s="1">
         <v>33.33</v>
       </c>
-      <c r="M61" s="16"/>
+      <c r="M61" s="19"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>55</v>
       </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
       <c r="K62" s="1" t="s">
         <v>133</v>
       </c>
       <c r="L62" s="1">
         <v>33.33</v>
       </c>
-      <c r="M62" s="16"/>
+      <c r="M62" s="19"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -2181,27 +2239,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="I55:I59"/>
+    <mergeCell ref="M55:M59"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="M44:M48"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="M52:M54"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="I39:I43"/>
     <mergeCell ref="J39:J43"/>
     <mergeCell ref="M39:M42"/>
     <mergeCell ref="K43:L43"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="J44:J48"/>
-    <mergeCell ref="M44:M48"/>
-    <mergeCell ref="M49:M51"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="M55:M59"/>
-    <mergeCell ref="M60:M62"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="I55:I59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
